--- a/forecast_summary_B0BSB6MZ2L.xlsx
+++ b/forecast_summary_B0BSB6MZ2L.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>22.87308639168214</v>
       </c>
       <c r="D2" t="n">
-        <v>66.58673813942221</v>
+        <v>63.78751350191974</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>15.16858342852503</v>
       </c>
       <c r="D3" t="n">
-        <v>62.4363181084441</v>
+        <v>62.56341360752074</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>17.1404560109886</v>
       </c>
       <c r="D4" t="n">
-        <v>59.48592186494091</v>
+        <v>63.11462735804064</v>
       </c>
       <c r="E4" t="n">
         <v>51</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>20.01169348129846</v>
       </c>
       <c r="D5" t="n">
-        <v>62.63276755327737</v>
+        <v>62.94044799366138</v>
       </c>
       <c r="E5" t="n">
         <v>44</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>17.65065295789588</v>
       </c>
       <c r="D6" t="n">
-        <v>63.35017219045224</v>
+        <v>61.73138415410236</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>11.535464829038</v>
       </c>
       <c r="D7" t="n">
-        <v>57.10990204284016</v>
+        <v>56.94994934867638</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>6.453001145230171</v>
       </c>
       <c r="D8" t="n">
-        <v>51.89308411190338</v>
+        <v>50.0350515788229</v>
       </c>
       <c r="E8" t="n">
         <v>29</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>4.440483863943276</v>
       </c>
       <c r="D9" t="n">
-        <v>44.88262911261198</v>
+        <v>45.84543363176152</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>3.950011534914446</v>
       </c>
       <c r="D10" t="n">
-        <v>51.31570036996671</v>
+        <v>45.1048437930277</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>3.134200816058319</v>
       </c>
       <c r="D11" t="n">
-        <v>48.44352424311786</v>
+        <v>46.41863902146279</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>1.914486670397546</v>
       </c>
       <c r="D12" t="n">
-        <v>47.37853284228665</v>
+        <v>49.748116179553</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>0.9341668963496085</v>
       </c>
       <c r="D13" t="n">
-        <v>47.68189674316118</v>
+        <v>44.81226851384551</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.09330879752113057</v>
       </c>
       <c r="D14" t="n">
-        <v>45.74856953244714</v>
+        <v>46.02819580178077</v>
       </c>
       <c r="E14" t="n">
         <v>27</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
         <v>-1.077595125395742</v>
       </c>
       <c r="D15" t="n">
-        <v>44.48006798062638</v>
+        <v>40.52966403228521</v>
       </c>
       <c r="E15" t="n">
         <v>26</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>-2.390822702894561</v>
       </c>
       <c r="D16" t="n">
-        <v>41.41651738453894</v>
+        <v>38.98868243019057</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-3.297864608148515</v>
       </c>
       <c r="D17" t="n">
-        <v>38.19678552466097</v>
+        <v>38.07327528338249</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-3.963122204866253</v>
       </c>
       <c r="D18" t="n">
-        <v>41.9961036862143</v>
+        <v>40.39561838872028</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
         <v>-5.166973762207036</v>
       </c>
       <c r="D19" t="n">
-        <v>39.57150728421093</v>
+        <v>41.5301526801596</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
         <v>-7.029031393825463</v>
       </c>
       <c r="D20" t="n">
-        <v>36.66791487127706</v>
+        <v>37.53243510245623</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-8.59853122843815</v>
       </c>
       <c r="D21" t="n">
-        <v>36.2637270791408</v>
+        <v>35.41803872516704</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>396</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>256</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
